--- a/DISEÑO CONCEPTUAL.xlsx
+++ b/DISEÑO CONCEPTUAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braya\OneDrive\Escritorio\Ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D26C555-9A26-4561-9D8B-3D19B65A03FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E03A24-A3AF-4658-B230-8103888B0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="1440" windowWidth="15900" windowHeight="12585" activeTab="1" xr2:uid="{C5AAADC8-8237-4775-9916-517EC372446F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C5AAADC8-8237-4775-9916-517EC372446F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -154,14 +154,26 @@
   </si>
   <si>
     <t>DETALLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +219,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,23 +540,23 @@
       <selection activeCell="G16" sqref="G16:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -560,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -588,7 +600,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -596,7 +608,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -607,7 +619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -621,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -659,7 +671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -673,7 +685,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -687,7 +699,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -695,7 +707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -706,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,7 +747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -746,7 +758,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -764,28 +776,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF25BBEF-1C71-443B-A069-B6870BFBBE94}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="72" workbookViewId="0">
+      <selection activeCell="G36" sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -793,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -801,14 +815,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -821,7 +835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
@@ -829,7 +843,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
@@ -837,38 +851,26 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -879,154 +881,210 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
